--- a/tests/expected_outputs/CPHP Partnerships Data Entry 2022-09.xlsx
+++ b/tests/expected_outputs/CPHP Partnerships Data Entry 2022-09.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="107">
   <si>
     <t>partnership_name</t>
   </si>
@@ -96,43 +96,31 @@
     <t>program_activity_comments</t>
   </si>
   <si>
-    <t>Bennett, Harrington and Cardenas</t>
-  </si>
-  <si>
-    <t>BLACKFOOT HERITAGE SIXTH GRADE</t>
-  </si>
-  <si>
-    <t>Special Education Preschool</t>
-  </si>
-  <si>
-    <t>OWEGO ELEMENTARY SCHOOL</t>
-  </si>
-  <si>
-    <t>Castillo, Gonzalez and Ruiz</t>
-  </si>
-  <si>
-    <t>Perez Inc</t>
-  </si>
-  <si>
-    <t>Walker PLC</t>
-  </si>
-  <si>
-    <t>Castillo, Johnston and Barry</t>
-  </si>
-  <si>
-    <t>Parker, Lucero and Bailey</t>
-  </si>
-  <si>
-    <t>Bentley High School BOLD Academy</t>
-  </si>
-  <si>
-    <t>Conley Ltd</t>
+    <t>Gonzalez, Walsh and Fritz</t>
+  </si>
+  <si>
+    <t>LAKES COUNTRY YOUTH EDUC SVCS</t>
+  </si>
+  <si>
+    <t>Cambria Friesland Elementary</t>
+  </si>
+  <si>
+    <t>Ridgeline Academy Inc.</t>
+  </si>
+  <si>
+    <t>Nelson-Rose</t>
+  </si>
+  <si>
+    <t>FAIRLAWN ELEMENTARY SCHOOL</t>
+  </si>
+  <si>
+    <t>Page-Hernandez</t>
   </si>
   <si>
     <t>pa423986</t>
   </si>
   <si>
-    <t>pa439794</t>
+    <t>pa439791</t>
   </si>
   <si>
     <t>pa439806</t>
@@ -141,9 +129,6 @@
     <t>pa439904</t>
   </si>
   <si>
-    <t>pa441368</t>
-  </si>
-  <si>
     <t>ia118766</t>
   </si>
   <si>
@@ -162,51 +147,33 @@
     <t>CPHP (District)</t>
   </si>
   <si>
-    <t>1262 Ann Plains</t>
-  </si>
-  <si>
-    <t>489 Nichols Crossing</t>
-  </si>
-  <si>
-    <t>7935 Fred Turnpike</t>
-  </si>
-  <si>
-    <t>7008 Matthew Villages Apt. 145</t>
-  </si>
-  <si>
-    <t>6421 Nicole Mountains</t>
-  </si>
-  <si>
-    <t>96596 Thomas Dale</t>
-  </si>
-  <si>
-    <t>69280 Timothy Spring</t>
-  </si>
-  <si>
-    <t>82648 Traci Ridges</t>
-  </si>
-  <si>
-    <t>480 Christopher Trail Apt. 664</t>
-  </si>
-  <si>
-    <t>3904 Wilcox Camp Suite 027</t>
-  </si>
-  <si>
-    <t>878 Parker Alley Apt. 318</t>
+    <t>0249 Brandy Flats</t>
+  </si>
+  <si>
+    <t>41240 Brenda Place</t>
+  </si>
+  <si>
+    <t>6474 Ashley Lodge Apt. 502</t>
+  </si>
+  <si>
+    <t>490 Barrett Rapids</t>
+  </si>
+  <si>
+    <t>5037 Davis Knoll</t>
+  </si>
+  <si>
+    <t>49070 Rachel Row Apt. 125</t>
+  </si>
+  <si>
+    <t>465 Marcus Lake</t>
   </si>
   <si>
     <t>Chicago</t>
   </si>
   <si>
-    <t>Galesburg</t>
-  </si>
-  <si>
     <t>IL</t>
   </si>
   <si>
-    <t>Howard Group</t>
-  </si>
-  <si>
     <t>Recruitment (includes program outreach), Space (e.g., facility or room where programs take place)</t>
   </si>
   <si>
@@ -219,9 +186,6 @@
     <t>Improve diet quality,Increase physical activity opportunities</t>
   </si>
   <si>
-    <t>Improve diet quality</t>
-  </si>
-  <si>
     <t>Cooperator</t>
   </si>
   <si>
@@ -231,31 +195,28 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>Jordan.Williams@fake_domain.com</t>
-  </si>
-  <si>
-    <t>Tiffany.Martinez@fake_domain.com</t>
-  </si>
-  <si>
-    <t>Lauren.Huffman@fake_domain.com</t>
-  </si>
-  <si>
-    <t>Jennifer.Jones@fake_domain.com</t>
-  </si>
-  <si>
-    <t>Theresa.Williams@fake_domain.com</t>
-  </si>
-  <si>
-    <t>Zachary.Hodge@fake_domain.com</t>
-  </si>
-  <si>
-    <t>Melissa.Pruitt@fake_domain.com</t>
+    <t>Wayne.Johnston@fake_domain.com</t>
+  </si>
+  <si>
+    <t>Kari.Griffith@fake_domain.com</t>
+  </si>
+  <si>
+    <t>David.Phillips@fake_domain.com</t>
+  </si>
+  <si>
+    <t>Daniel.Johnson@fake_domain.com</t>
+  </si>
+  <si>
+    <t>Jennifer.Carr@fake_domain.com</t>
+  </si>
+  <si>
+    <t>Monique.Young@fake_domain.com</t>
   </si>
   <si>
     <t>Program Activity Data 423986 Comments</t>
   </si>
   <si>
-    <t>Program Activity Data 439794 Comments</t>
+    <t>Program Activity Data 439791 Comments</t>
   </si>
   <si>
     <t>Program Activity Data 439806 Comments</t>
@@ -264,9 +225,6 @@
     <t>Program Activity Data 439904 Comments</t>
   </si>
   <si>
-    <t>Program Activity Data 441368 Comments</t>
-  </si>
-  <si>
     <t>partnership_id_copy</t>
   </si>
   <si>
@@ -276,30 +234,39 @@
     <t>site_name_copy</t>
   </si>
   <si>
+    <t>pa432413</t>
+  </si>
+  <si>
     <t>pa432418</t>
   </si>
   <si>
-    <t>pa439745</t>
-  </si>
-  <si>
     <t>pa439867</t>
   </si>
   <si>
+    <t>pa447191</t>
+  </si>
+  <si>
     <t>ia127020</t>
   </si>
   <si>
     <t>ia130684</t>
   </si>
   <si>
+    <t>Partnership Data 61299 Partnership Name</t>
+  </si>
+  <si>
+    <t>Partnership Data 61326 Partnership Name</t>
+  </si>
+  <si>
     <t>Partnership Data 61987 Partnership Name</t>
   </si>
   <si>
+    <t>Partnership Data 50530 Partnership Name</t>
+  </si>
+  <si>
     <t>Partnership Data 48329 Partnership Name</t>
   </si>
   <si>
-    <t>Partnership Data 50530 Partnership Name</t>
-  </si>
-  <si>
     <t>Partnership Data 56306 Partnership Name</t>
   </si>
   <si>
@@ -309,46 +276,70 @@
     <t>Partnership Data 62037 Partnership Name</t>
   </si>
   <si>
-    <t>Moore, Mosley and Rodriguez</t>
-  </si>
-  <si>
-    <t>Richmond Community High School</t>
-  </si>
-  <si>
-    <t>Table Rock Middle</t>
-  </si>
-  <si>
-    <t>Arias-Alvarado</t>
-  </si>
-  <si>
-    <t>Bryant, Robinson and Moore</t>
-  </si>
-  <si>
-    <t>3974 Reginald Throughway Suite 218</t>
-  </si>
-  <si>
-    <t>38493 Scott Roads Suite 040</t>
-  </si>
-  <si>
-    <t>15569 Teresa Station</t>
-  </si>
-  <si>
-    <t>021 Annette Key</t>
-  </si>
-  <si>
-    <t>728 Robert Plain Apt. 775</t>
+    <t>Brown-Ellis</t>
+  </si>
+  <si>
+    <t>Flowers Inc</t>
+  </si>
+  <si>
+    <t>Reynolds-Bass</t>
+  </si>
+  <si>
+    <t>Sussex Technical High School</t>
+  </si>
+  <si>
+    <t>Richard Avenue Elementary School</t>
+  </si>
+  <si>
+    <t>Johnson and Sons</t>
+  </si>
+  <si>
+    <t>Mccoy Ltd</t>
+  </si>
+  <si>
+    <t>64988 Selena Corners</t>
+  </si>
+  <si>
+    <t>93109 Bryant Heights Suite 864</t>
+  </si>
+  <si>
+    <t>0808 Michael Mall</t>
+  </si>
+  <si>
+    <t>640 Austin Pike Suite 617</t>
+  </si>
+  <si>
+    <t>336 Stevenson Passage Apt. 018</t>
+  </si>
+  <si>
+    <t>2793 Perez Square Suite 578</t>
+  </si>
+  <si>
+    <t>4100 Justin Manor</t>
+  </si>
+  <si>
+    <t>Hawkins and Sons</t>
+  </si>
+  <si>
+    <t>Program Activity Data 432413 Comments</t>
   </si>
   <si>
     <t>Program Activity Data 432418 Comments</t>
   </si>
   <si>
-    <t>Program Activity Data 439745 Comments</t>
-  </si>
-  <si>
     <t>Program Activity Data 439867 Comments</t>
   </si>
   <si>
-    <t>Mary.Noble@fake_domain.com</t>
+    <t>Program Activity Data 447191 Comments</t>
+  </si>
+  <si>
+    <t>Daniel.Poole@fake_domain.com</t>
+  </si>
+  <si>
+    <t>Joann.Mccullough@fake_domain.com</t>
+  </si>
+  <si>
+    <t>Laurie.Robinson@fake_domain.com</t>
   </si>
 </sst>
 </file>
@@ -706,20 +697,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Y12"/>
+  <dimension ref="A1:Y8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="33.7109375" customWidth="1"/>
+    <col min="1" max="1" width="30.7109375" customWidth="1"/>
     <col min="2" max="2" width="9.7109375" customWidth="1"/>
     <col min="3" max="3" width="13.7109375" customWidth="1"/>
     <col min="4" max="4" width="70.7109375" customWidth="1"/>
     <col min="5" max="5" width="17.7109375" customWidth="1"/>
-    <col min="6" max="6" width="8.7109375" customWidth="1"/>
-    <col min="7" max="7" width="33.7109375" customWidth="1"/>
-    <col min="8" max="8" width="31.7109375" customWidth="1"/>
+    <col min="6" max="6" width="9.7109375" customWidth="1"/>
+    <col min="7" max="7" width="30.7109375" customWidth="1"/>
+    <col min="8" max="8" width="27.7109375" customWidth="1"/>
     <col min="9" max="9" width="10.7109375" customWidth="1"/>
     <col min="10" max="10" width="11.7109375" customWidth="1"/>
     <col min="11" max="11" width="9.7109375" customWidth="1"/>
@@ -735,7 +726,7 @@
     <col min="21" max="21" width="16.7109375" customWidth="1"/>
     <col min="22" max="22" width="16.7109375" customWidth="1"/>
     <col min="23" max="23" width="16.7109375" customWidth="1"/>
-    <col min="24" max="24" width="33.7109375" customWidth="1"/>
+    <col min="24" max="24" width="31.7109375" customWidth="1"/>
     <col min="25" max="25" width="38.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -821,16 +812,16 @@
         <v>25</v>
       </c>
       <c r="B2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C2" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D2" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="F2">
         <v>138183</v>
@@ -839,49 +830,49 @@
         <v>25</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="I2" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="K2">
         <v>60651</v>
       </c>
       <c r="M2" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="N2" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="P2">
         <v>1</v>
       </c>
       <c r="R2" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="T2" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="U2" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="V2" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="W2" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="X2" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="Y2" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:25">
@@ -889,16 +880,16 @@
         <v>26</v>
       </c>
       <c r="B3" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C3" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D3" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E3" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="F3">
         <v>21845</v>
@@ -907,49 +898,49 @@
         <v>26</v>
       </c>
       <c r="H3" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="I3" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="J3" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="K3">
         <v>60653</v>
       </c>
       <c r="M3" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="N3" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="O3" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="P3">
         <v>1</v>
       </c>
       <c r="R3" t="s">
+        <v>54</v>
+      </c>
+      <c r="T3" t="s">
+        <v>55</v>
+      </c>
+      <c r="U3" t="s">
+        <v>56</v>
+      </c>
+      <c r="V3" t="s">
+        <v>57</v>
+      </c>
+      <c r="W3" t="s">
+        <v>57</v>
+      </c>
+      <c r="X3" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y3" t="s">
         <v>65</v>
-      </c>
-      <c r="T3" t="s">
-        <v>67</v>
-      </c>
-      <c r="U3" t="s">
-        <v>68</v>
-      </c>
-      <c r="V3" t="s">
-        <v>69</v>
-      </c>
-      <c r="W3" t="s">
-        <v>69</v>
-      </c>
-      <c r="X3" t="s">
-        <v>71</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:25">
@@ -957,16 +948,16 @@
         <v>27</v>
       </c>
       <c r="B4" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C4" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D4" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E4" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="F4">
         <v>21449</v>
@@ -975,49 +966,49 @@
         <v>27</v>
       </c>
       <c r="H4" t="s">
+        <v>44</v>
+      </c>
+      <c r="I4" t="s">
         <v>49</v>
       </c>
-      <c r="I4" t="s">
-        <v>58</v>
-      </c>
       <c r="J4" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="K4">
         <v>60616</v>
       </c>
       <c r="M4" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="N4" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="O4" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="P4">
         <v>1</v>
       </c>
       <c r="R4" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="T4" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="U4" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="V4" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="W4" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="X4" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="Y4" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:25">
@@ -1025,16 +1016,16 @@
         <v>28</v>
       </c>
       <c r="B5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" t="s">
         <v>39</v>
       </c>
-      <c r="C5" t="s">
-        <v>44</v>
-      </c>
       <c r="D5" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E5" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="F5">
         <v>21767</v>
@@ -1043,49 +1034,49 @@
         <v>28</v>
       </c>
       <c r="H5" t="s">
+        <v>45</v>
+      </c>
+      <c r="I5" t="s">
+        <v>49</v>
+      </c>
+      <c r="J5" t="s">
         <v>50</v>
-      </c>
-      <c r="I5" t="s">
-        <v>58</v>
-      </c>
-      <c r="J5" t="s">
-        <v>60</v>
       </c>
       <c r="K5">
         <v>60643</v>
       </c>
       <c r="M5" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="N5" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="O5" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="P5">
         <v>1</v>
       </c>
       <c r="R5" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="T5" t="s">
+        <v>55</v>
+      </c>
+      <c r="U5" t="s">
+        <v>56</v>
+      </c>
+      <c r="V5" t="s">
+        <v>57</v>
+      </c>
+      <c r="W5" t="s">
+        <v>57</v>
+      </c>
+      <c r="X5" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y5" t="s">
         <v>67</v>
-      </c>
-      <c r="U5" t="s">
-        <v>68</v>
-      </c>
-      <c r="V5" t="s">
-        <v>69</v>
-      </c>
-      <c r="W5" t="s">
-        <v>69</v>
-      </c>
-      <c r="X5" t="s">
-        <v>72</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:25">
@@ -1093,70 +1084,61 @@
         <v>29</v>
       </c>
       <c r="B6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" t="s">
         <v>40</v>
       </c>
-      <c r="C6" t="s">
-        <v>44</v>
-      </c>
-      <c r="D6" t="s">
-        <v>45</v>
-      </c>
       <c r="E6" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="F6">
-        <v>136084</v>
+        <v>125298</v>
       </c>
       <c r="G6" t="s">
         <v>29</v>
       </c>
       <c r="H6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" t="s">
+        <v>49</v>
+      </c>
+      <c r="J6" t="s">
+        <v>50</v>
+      </c>
+      <c r="K6">
+        <v>60636</v>
+      </c>
+      <c r="M6" t="s">
         <v>51</v>
       </c>
-      <c r="I6" t="s">
-        <v>59</v>
-      </c>
-      <c r="J6" t="s">
-        <v>60</v>
-      </c>
-      <c r="K6">
-        <v>61401</v>
-      </c>
-      <c r="L6" t="s">
+      <c r="N6" t="s">
+        <v>52</v>
+      </c>
+      <c r="O6" t="s">
+        <v>53</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="T6" t="s">
+        <v>55</v>
+      </c>
+      <c r="U6" t="s">
+        <v>56</v>
+      </c>
+      <c r="V6" t="s">
+        <v>57</v>
+      </c>
+      <c r="W6" t="s">
+        <v>57</v>
+      </c>
+      <c r="X6" t="s">
         <v>61</v>
-      </c>
-      <c r="M6" t="s">
-        <v>62</v>
-      </c>
-      <c r="N6" t="s">
-        <v>63</v>
-      </c>
-      <c r="O6" t="s">
-        <v>64</v>
-      </c>
-      <c r="P6">
-        <v>1</v>
-      </c>
-      <c r="R6" t="s">
-        <v>66</v>
-      </c>
-      <c r="T6" t="s">
-        <v>67</v>
-      </c>
-      <c r="U6" t="s">
-        <v>68</v>
-      </c>
-      <c r="V6" t="s">
-        <v>69</v>
-      </c>
-      <c r="W6" t="s">
-        <v>69</v>
-      </c>
-      <c r="X6" t="s">
-        <v>73</v>
-      </c>
-      <c r="Y6" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="7" spans="1:25">
@@ -1164,70 +1146,61 @@
         <v>30</v>
       </c>
       <c r="B7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" t="s">
         <v>40</v>
       </c>
-      <c r="C7" t="s">
-        <v>44</v>
-      </c>
-      <c r="D7" t="s">
-        <v>45</v>
-      </c>
       <c r="E7" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="F7">
-        <v>136086</v>
+        <v>21238</v>
       </c>
       <c r="G7" t="s">
         <v>30</v>
       </c>
       <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>49</v>
+      </c>
+      <c r="J7" t="s">
+        <v>50</v>
+      </c>
+      <c r="K7">
+        <v>60619</v>
+      </c>
+      <c r="M7" t="s">
+        <v>51</v>
+      </c>
+      <c r="N7" t="s">
         <v>52</v>
       </c>
-      <c r="I7" t="s">
-        <v>59</v>
-      </c>
-      <c r="J7" t="s">
-        <v>60</v>
-      </c>
-      <c r="K7">
-        <v>61401</v>
-      </c>
-      <c r="L7" t="s">
-        <v>61</v>
-      </c>
-      <c r="M7" t="s">
+      <c r="O7" t="s">
+        <v>53</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="T7" t="s">
+        <v>55</v>
+      </c>
+      <c r="U7" t="s">
+        <v>56</v>
+      </c>
+      <c r="V7" t="s">
+        <v>57</v>
+      </c>
+      <c r="W7" t="s">
+        <v>57</v>
+      </c>
+      <c r="X7" t="s">
         <v>62</v>
-      </c>
-      <c r="N7" t="s">
-        <v>63</v>
-      </c>
-      <c r="O7" t="s">
-        <v>64</v>
-      </c>
-      <c r="P7">
-        <v>1</v>
-      </c>
-      <c r="R7" t="s">
-        <v>66</v>
-      </c>
-      <c r="T7" t="s">
-        <v>67</v>
-      </c>
-      <c r="U7" t="s">
-        <v>68</v>
-      </c>
-      <c r="V7" t="s">
-        <v>69</v>
-      </c>
-      <c r="W7" t="s">
-        <v>69</v>
-      </c>
-      <c r="X7" t="s">
-        <v>73</v>
-      </c>
-      <c r="Y7" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="8" spans="1:25">
@@ -1235,327 +1208,61 @@
         <v>31</v>
       </c>
       <c r="B8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" t="s">
         <v>40</v>
       </c>
-      <c r="C8" t="s">
-        <v>44</v>
-      </c>
-      <c r="D8" t="s">
-        <v>45</v>
-      </c>
       <c r="E8" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="F8">
-        <v>140148</v>
+        <v>140483</v>
       </c>
       <c r="G8" t="s">
         <v>31</v>
       </c>
       <c r="H8" t="s">
+        <v>48</v>
+      </c>
+      <c r="I8" t="s">
+        <v>49</v>
+      </c>
+      <c r="J8" t="s">
+        <v>50</v>
+      </c>
+      <c r="K8">
+        <v>60621</v>
+      </c>
+      <c r="M8" t="s">
+        <v>51</v>
+      </c>
+      <c r="N8" t="s">
+        <v>52</v>
+      </c>
+      <c r="O8" t="s">
         <v>53</v>
       </c>
-      <c r="I8" t="s">
-        <v>59</v>
-      </c>
-      <c r="J8" t="s">
-        <v>60</v>
-      </c>
-      <c r="K8">
-        <v>61401</v>
-      </c>
-      <c r="L8" t="s">
-        <v>61</v>
-      </c>
-      <c r="M8" t="s">
-        <v>62</v>
-      </c>
-      <c r="N8" t="s">
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="T8" t="s">
+        <v>55</v>
+      </c>
+      <c r="U8" t="s">
+        <v>56</v>
+      </c>
+      <c r="V8" t="s">
+        <v>57</v>
+      </c>
+      <c r="W8" t="s">
+        <v>57</v>
+      </c>
+      <c r="X8" t="s">
         <v>63</v>
-      </c>
-      <c r="O8" t="s">
-        <v>64</v>
-      </c>
-      <c r="P8">
-        <v>1</v>
-      </c>
-      <c r="R8" t="s">
-        <v>66</v>
-      </c>
-      <c r="T8" t="s">
-        <v>67</v>
-      </c>
-      <c r="U8" t="s">
-        <v>68</v>
-      </c>
-      <c r="V8" t="s">
-        <v>69</v>
-      </c>
-      <c r="W8" t="s">
-        <v>69</v>
-      </c>
-      <c r="X8" t="s">
-        <v>73</v>
-      </c>
-      <c r="Y8" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="9" spans="1:25">
-      <c r="A9" t="s">
-        <v>32</v>
-      </c>
-      <c r="B9" t="s">
-        <v>40</v>
-      </c>
-      <c r="C9" t="s">
-        <v>44</v>
-      </c>
-      <c r="D9" t="s">
-        <v>45</v>
-      </c>
-      <c r="E9" t="s">
-        <v>46</v>
-      </c>
-      <c r="F9">
-        <v>140253</v>
-      </c>
-      <c r="G9" t="s">
-        <v>32</v>
-      </c>
-      <c r="H9" t="s">
-        <v>54</v>
-      </c>
-      <c r="I9" t="s">
-        <v>59</v>
-      </c>
-      <c r="J9" t="s">
-        <v>60</v>
-      </c>
-      <c r="K9">
-        <v>61401</v>
-      </c>
-      <c r="L9" t="s">
-        <v>61</v>
-      </c>
-      <c r="M9" t="s">
-        <v>62</v>
-      </c>
-      <c r="N9" t="s">
-        <v>63</v>
-      </c>
-      <c r="O9" t="s">
-        <v>64</v>
-      </c>
-      <c r="P9">
-        <v>1</v>
-      </c>
-      <c r="R9" t="s">
-        <v>66</v>
-      </c>
-      <c r="T9" t="s">
-        <v>67</v>
-      </c>
-      <c r="U9" t="s">
-        <v>68</v>
-      </c>
-      <c r="V9" t="s">
-        <v>69</v>
-      </c>
-      <c r="W9" t="s">
-        <v>69</v>
-      </c>
-      <c r="X9" t="s">
-        <v>73</v>
-      </c>
-      <c r="Y9" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="10" spans="1:25">
-      <c r="A10" t="s">
-        <v>33</v>
-      </c>
-      <c r="B10" t="s">
-        <v>41</v>
-      </c>
-      <c r="C10" t="s">
-        <v>44</v>
-      </c>
-      <c r="D10" t="s">
-        <v>45</v>
-      </c>
-      <c r="E10" t="s">
-        <v>46</v>
-      </c>
-      <c r="F10">
-        <v>125298</v>
-      </c>
-      <c r="G10" t="s">
-        <v>33</v>
-      </c>
-      <c r="H10" t="s">
-        <v>55</v>
-      </c>
-      <c r="I10" t="s">
-        <v>58</v>
-      </c>
-      <c r="J10" t="s">
-        <v>60</v>
-      </c>
-      <c r="K10">
-        <v>60636</v>
-      </c>
-      <c r="M10" t="s">
-        <v>62</v>
-      </c>
-      <c r="N10" t="s">
-        <v>63</v>
-      </c>
-      <c r="O10" t="s">
-        <v>64</v>
-      </c>
-      <c r="P10">
-        <v>0</v>
-      </c>
-      <c r="T10" t="s">
-        <v>67</v>
-      </c>
-      <c r="U10" t="s">
-        <v>68</v>
-      </c>
-      <c r="V10" t="s">
-        <v>69</v>
-      </c>
-      <c r="W10" t="s">
-        <v>69</v>
-      </c>
-      <c r="X10" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="11" spans="1:25">
-      <c r="A11" t="s">
-        <v>34</v>
-      </c>
-      <c r="B11" t="s">
-        <v>42</v>
-      </c>
-      <c r="C11" t="s">
-        <v>44</v>
-      </c>
-      <c r="D11" t="s">
-        <v>45</v>
-      </c>
-      <c r="E11" t="s">
-        <v>46</v>
-      </c>
-      <c r="F11">
-        <v>21238</v>
-      </c>
-      <c r="G11" t="s">
-        <v>34</v>
-      </c>
-      <c r="H11" t="s">
-        <v>56</v>
-      </c>
-      <c r="I11" t="s">
-        <v>58</v>
-      </c>
-      <c r="J11" t="s">
-        <v>60</v>
-      </c>
-      <c r="K11">
-        <v>60619</v>
-      </c>
-      <c r="M11" t="s">
-        <v>62</v>
-      </c>
-      <c r="N11" t="s">
-        <v>63</v>
-      </c>
-      <c r="O11" t="s">
-        <v>64</v>
-      </c>
-      <c r="P11">
-        <v>0</v>
-      </c>
-      <c r="T11" t="s">
-        <v>67</v>
-      </c>
-      <c r="U11" t="s">
-        <v>68</v>
-      </c>
-      <c r="V11" t="s">
-        <v>69</v>
-      </c>
-      <c r="W11" t="s">
-        <v>69</v>
-      </c>
-      <c r="X11" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="12" spans="1:25">
-      <c r="A12" t="s">
-        <v>35</v>
-      </c>
-      <c r="B12" t="s">
-        <v>43</v>
-      </c>
-      <c r="C12" t="s">
-        <v>44</v>
-      </c>
-      <c r="D12" t="s">
-        <v>45</v>
-      </c>
-      <c r="E12" t="s">
-        <v>46</v>
-      </c>
-      <c r="F12">
-        <v>140483</v>
-      </c>
-      <c r="G12" t="s">
-        <v>35</v>
-      </c>
-      <c r="H12" t="s">
-        <v>57</v>
-      </c>
-      <c r="I12" t="s">
-        <v>58</v>
-      </c>
-      <c r="J12" t="s">
-        <v>60</v>
-      </c>
-      <c r="K12">
-        <v>60621</v>
-      </c>
-      <c r="M12" t="s">
-        <v>62</v>
-      </c>
-      <c r="N12" t="s">
-        <v>63</v>
-      </c>
-      <c r="O12" t="s">
-        <v>64</v>
-      </c>
-      <c r="P12">
-        <v>0</v>
-      </c>
-      <c r="T12" t="s">
-        <v>67</v>
-      </c>
-      <c r="U12" t="s">
-        <v>68</v>
-      </c>
-      <c r="V12" t="s">
-        <v>69</v>
-      </c>
-      <c r="W12" t="s">
-        <v>69</v>
-      </c>
-      <c r="X12" t="s">
-        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -1566,7 +1273,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W7"/>
+  <dimension ref="A1:W9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1577,9 +1284,9 @@
     <col min="3" max="3" width="40.7109375" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" customWidth="1"/>
     <col min="5" max="5" width="70.7109375" customWidth="1"/>
-    <col min="6" max="6" width="8.7109375" customWidth="1"/>
-    <col min="7" max="7" width="31.7109375" customWidth="1"/>
-    <col min="8" max="8" width="35.7109375" customWidth="1"/>
+    <col min="6" max="6" width="9.7109375" customWidth="1"/>
+    <col min="7" max="7" width="33.7109375" customWidth="1"/>
+    <col min="8" max="8" width="31.7109375" customWidth="1"/>
     <col min="9" max="9" width="10.7109375" customWidth="1"/>
     <col min="10" max="10" width="11.7109375" customWidth="1"/>
     <col min="11" max="11" width="9.7109375" customWidth="1"/>
@@ -1602,10 +1309,10 @@
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -1617,7 +1324,7 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
@@ -1670,359 +1377,489 @@
     </row>
     <row r="2" spans="1:23">
       <c r="A2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B2">
+        <v>61299</v>
+      </c>
+      <c r="C2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F2">
+        <v>25641</v>
+      </c>
+      <c r="G2" t="s">
         <v>85</v>
       </c>
-      <c r="B2">
-        <v>61987</v>
-      </c>
-      <c r="C2" t="s">
-        <v>90</v>
-      </c>
-      <c r="D2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F2">
-        <v>115793</v>
-      </c>
-      <c r="G2" t="s">
-        <v>96</v>
-      </c>
       <c r="H2" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="I2" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="K2">
-        <v>60628</v>
+        <v>60649</v>
       </c>
       <c r="L2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="M2" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="N2" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="P2">
         <v>1</v>
       </c>
       <c r="R2" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="T2" t="s">
-        <v>67</v>
+        <v>55</v>
+      </c>
+      <c r="U2" t="s">
+        <v>99</v>
       </c>
       <c r="V2" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="W2" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:23">
       <c r="A3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B3">
+        <v>61326</v>
+      </c>
+      <c r="C3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F3">
+        <v>112816</v>
+      </c>
+      <c r="G3" t="s">
         <v>86</v>
       </c>
-      <c r="B3">
-        <v>48329</v>
-      </c>
-      <c r="C3" t="s">
-        <v>91</v>
-      </c>
-      <c r="D3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F3">
-        <v>21519</v>
-      </c>
-      <c r="G3" t="s">
-        <v>97</v>
-      </c>
       <c r="H3" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="I3" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="J3" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="K3">
-        <v>60620</v>
+        <v>60651</v>
       </c>
       <c r="L3" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="M3" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="N3" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="O3" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="P3">
         <v>1</v>
       </c>
       <c r="R3" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="T3" t="s">
-        <v>67</v>
+        <v>55</v>
+      </c>
+      <c r="U3" t="s">
+        <v>99</v>
       </c>
       <c r="V3" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="W3" t="s">
-        <v>71</v>
+        <v>104</v>
       </c>
     </row>
     <row r="4" spans="1:23">
       <c r="A4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B4">
+        <v>61987</v>
+      </c>
+      <c r="C4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F4">
+        <v>115793</v>
+      </c>
+      <c r="G4" t="s">
         <v>87</v>
       </c>
-      <c r="B4">
-        <v>50530</v>
-      </c>
-      <c r="C4" t="s">
-        <v>92</v>
-      </c>
-      <c r="D4" t="s">
-        <v>44</v>
-      </c>
-      <c r="E4" t="s">
-        <v>45</v>
-      </c>
-      <c r="F4">
-        <v>21523</v>
-      </c>
-      <c r="G4" t="s">
-        <v>98</v>
-      </c>
       <c r="H4" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="I4" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="J4" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="K4">
-        <v>60620</v>
+        <v>60628</v>
       </c>
       <c r="L4" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="M4" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="N4" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="O4" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="P4">
         <v>1</v>
       </c>
       <c r="R4" t="s">
-        <v>65</v>
-      </c>
-      <c r="S4" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="T4" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="V4" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="W4" t="s">
-        <v>72</v>
+        <v>105</v>
       </c>
     </row>
     <row r="5" spans="1:23">
       <c r="A5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B5">
+        <v>50530</v>
+      </c>
+      <c r="C5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F5">
+        <v>21523</v>
+      </c>
+      <c r="G5" t="s">
         <v>88</v>
       </c>
-      <c r="B5">
-        <v>56306</v>
-      </c>
-      <c r="C5" t="s">
-        <v>93</v>
-      </c>
-      <c r="D5" t="s">
-        <v>44</v>
-      </c>
-      <c r="E5" t="s">
-        <v>45</v>
-      </c>
-      <c r="F5">
-        <v>25458</v>
-      </c>
-      <c r="G5" t="s">
-        <v>99</v>
-      </c>
       <c r="H5" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="I5" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="J5" t="s">
+        <v>50</v>
+      </c>
+      <c r="K5">
+        <v>60620</v>
+      </c>
+      <c r="L5" t="s">
+        <v>41</v>
+      </c>
+      <c r="M5" t="s">
+        <v>51</v>
+      </c>
+      <c r="N5" t="s">
+        <v>52</v>
+      </c>
+      <c r="O5" t="s">
+        <v>53</v>
+      </c>
+      <c r="P5">
+        <v>1</v>
+      </c>
+      <c r="R5" t="s">
+        <v>54</v>
+      </c>
+      <c r="S5" t="s">
+        <v>56</v>
+      </c>
+      <c r="T5" t="s">
+        <v>55</v>
+      </c>
+      <c r="V5" t="s">
+        <v>102</v>
+      </c>
+      <c r="W5" t="s">
         <v>60</v>
-      </c>
-      <c r="K5">
-        <v>60602</v>
-      </c>
-      <c r="L5" t="s">
-        <v>46</v>
-      </c>
-      <c r="M5" t="s">
-        <v>62</v>
-      </c>
-      <c r="N5" t="s">
-        <v>63</v>
-      </c>
-      <c r="O5" t="s">
-        <v>64</v>
-      </c>
-      <c r="P5">
-        <v>0</v>
-      </c>
-      <c r="T5" t="s">
-        <v>67</v>
-      </c>
-      <c r="W5" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:23">
       <c r="A6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B6">
+        <v>48329</v>
+      </c>
+      <c r="C6" t="s">
+        <v>81</v>
+      </c>
+      <c r="D6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F6">
+        <v>21519</v>
+      </c>
+      <c r="G6" t="s">
         <v>89</v>
       </c>
-      <c r="B6">
-        <v>61347</v>
-      </c>
-      <c r="C6" t="s">
-        <v>94</v>
-      </c>
-      <c r="D6" t="s">
-        <v>44</v>
-      </c>
-      <c r="E6" t="s">
-        <v>45</v>
-      </c>
-      <c r="F6">
-        <v>72688</v>
-      </c>
-      <c r="G6" t="s">
-        <v>100</v>
-      </c>
       <c r="H6" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="I6" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="J6" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="K6">
-        <v>60624</v>
+        <v>60620</v>
       </c>
       <c r="L6" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="M6" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="N6" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="O6" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="R6" t="s">
+        <v>54</v>
       </c>
       <c r="T6" t="s">
-        <v>67</v>
+        <v>55</v>
+      </c>
+      <c r="V6" t="s">
+        <v>103</v>
       </c>
       <c r="W6" t="s">
-        <v>70</v>
+        <v>106</v>
       </c>
     </row>
     <row r="7" spans="1:23">
       <c r="A7" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="B7">
-        <v>62037</v>
+        <v>56306</v>
       </c>
       <c r="C7" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="D7" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="E7" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="F7">
-        <v>72688</v>
+        <v>25458</v>
       </c>
       <c r="G7" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="H7" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="I7" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="J7" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="K7">
-        <v>60624</v>
+        <v>60602</v>
       </c>
       <c r="L7" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="M7" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="N7" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="O7" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="T7" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="W7" t="s">
-        <v>70</v>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23">
+      <c r="A8" t="s">
+        <v>76</v>
+      </c>
+      <c r="B8">
+        <v>61347</v>
+      </c>
+      <c r="C8" t="s">
+        <v>83</v>
+      </c>
+      <c r="D8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8">
+        <v>72688</v>
+      </c>
+      <c r="G8" t="s">
+        <v>91</v>
+      </c>
+      <c r="H8" t="s">
+        <v>98</v>
+      </c>
+      <c r="I8" t="s">
+        <v>49</v>
+      </c>
+      <c r="J8" t="s">
+        <v>50</v>
+      </c>
+      <c r="K8">
+        <v>60624</v>
+      </c>
+      <c r="L8" t="s">
+        <v>41</v>
+      </c>
+      <c r="M8" t="s">
+        <v>51</v>
+      </c>
+      <c r="N8" t="s">
+        <v>52</v>
+      </c>
+      <c r="O8" t="s">
+        <v>53</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="T8" t="s">
+        <v>55</v>
+      </c>
+      <c r="W8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23">
+      <c r="A9" t="s">
+        <v>76</v>
+      </c>
+      <c r="B9">
+        <v>62037</v>
+      </c>
+      <c r="C9" t="s">
+        <v>84</v>
+      </c>
+      <c r="D9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" t="s">
+        <v>40</v>
+      </c>
+      <c r="F9">
+        <v>72688</v>
+      </c>
+      <c r="G9" t="s">
+        <v>91</v>
+      </c>
+      <c r="H9" t="s">
+        <v>98</v>
+      </c>
+      <c r="I9" t="s">
+        <v>49</v>
+      </c>
+      <c r="J9" t="s">
+        <v>50</v>
+      </c>
+      <c r="K9">
+        <v>60624</v>
+      </c>
+      <c r="L9" t="s">
+        <v>41</v>
+      </c>
+      <c r="M9" t="s">
+        <v>51</v>
+      </c>
+      <c r="N9" t="s">
+        <v>52</v>
+      </c>
+      <c r="O9" t="s">
+        <v>53</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="T9" t="s">
+        <v>55</v>
+      </c>
+      <c r="W9" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
